--- a/Lab_OOP_5/TESTS.xlsx
+++ b/Lab_OOP_5/TESTS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trajt\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trajt\source\repos\OOP_C#\Lab_OOP_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250B1112-CF84-492B-934E-1A55E0E65F29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95B38DE-E788-4184-89FF-E45D7A2F95AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D5E3F440-5A72-4BF4-B64D-9E7427EA4866}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="148">
   <si>
     <t>№</t>
   </si>
@@ -117,12 +117,6 @@
     <t>Вывод одномерного массива</t>
   </si>
   <si>
-    <t>-1 53 12</t>
-  </si>
-  <si>
-    <t>'-1 53 12</t>
-  </si>
-  <si>
     <t>Вывод двумерного массива</t>
   </si>
   <si>
@@ -132,93 +126,9 @@
     <t>Пустой масств</t>
   </si>
   <si>
-    <t>Критерии</t>
-  </si>
-  <si>
-    <t>mas != null</t>
-  </si>
-  <si>
-    <t>mas = null</t>
-  </si>
-  <si>
-    <t>mas - одномерный</t>
-  </si>
-  <si>
-    <t>mas - рваный</t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>T3</t>
-  </si>
-  <si>
-    <t>T4</t>
-  </si>
-  <si>
-    <t>T5</t>
-  </si>
-  <si>
-    <t>T6</t>
-  </si>
-  <si>
-    <t>T7</t>
-  </si>
-  <si>
-    <t>T8</t>
-  </si>
-  <si>
-    <t>T9</t>
-  </si>
-  <si>
-    <t>T10</t>
-  </si>
-  <si>
-    <t>T11</t>
-  </si>
-  <si>
-    <t>T12</t>
-  </si>
-  <si>
-    <t>T13</t>
-  </si>
-  <si>
-    <t>T14</t>
-  </si>
-  <si>
-    <t>T15</t>
-  </si>
-  <si>
-    <t>T16</t>
-  </si>
-  <si>
-    <t>T17</t>
-  </si>
-  <si>
-    <t>T18</t>
-  </si>
-  <si>
-    <t>T19</t>
-  </si>
-  <si>
     <t>+</t>
   </si>
   <si>
-    <t>T20</t>
-  </si>
-  <si>
-    <t>T21</t>
-  </si>
-  <si>
-    <t>T22</t>
-  </si>
-  <si>
-    <t>T23</t>
-  </si>
-  <si>
     <t>Анализ задачи</t>
   </si>
   <si>
@@ -387,7 +297,184 @@
     <t>Т27</t>
   </si>
   <si>
-    <t>mas - матрица</t>
+    <t>1: -1 53 12                             2: 3 15 62</t>
+  </si>
+  <si>
+    <t>1: -1 53 12                                       2: 3 15 62</t>
+  </si>
+  <si>
+    <t>1: -1 53 12                                   2: 3 15 62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: -1 53 12                             2: 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: -1 53 12                                  2: 3 </t>
+  </si>
+  <si>
+    <t>1: -1 53 12                                              2: 3</t>
+  </si>
+  <si>
+    <t>1. Ввод размера массива</t>
+  </si>
+  <si>
+    <t>Т1</t>
+  </si>
+  <si>
+    <t>Т2</t>
+  </si>
+  <si>
+    <t>Т3</t>
+  </si>
+  <si>
+    <t>Т4</t>
+  </si>
+  <si>
+    <t>Т5</t>
+  </si>
+  <si>
+    <t>len - натуральное</t>
+  </si>
+  <si>
+    <t>len - вещественное</t>
+  </si>
+  <si>
+    <t>len - символ</t>
+  </si>
+  <si>
+    <t>len - отрицательное</t>
+  </si>
+  <si>
+    <t>len - 0</t>
+  </si>
+  <si>
+    <t>Ошибка</t>
+  </si>
+  <si>
+    <t>2. Ввод элементов с клавиатуры</t>
+  </si>
+  <si>
+    <t>Т6</t>
+  </si>
+  <si>
+    <t>Т7</t>
+  </si>
+  <si>
+    <t>Т8</t>
+  </si>
+  <si>
+    <t>Т9</t>
+  </si>
+  <si>
+    <t>elem - int</t>
+  </si>
+  <si>
+    <t>elem - char</t>
+  </si>
+  <si>
+    <t>elem - string</t>
+  </si>
+  <si>
+    <t>ошибка</t>
+  </si>
+  <si>
+    <t>3. Ввод границы случайных чисел</t>
+  </si>
+  <si>
+    <t>Т10</t>
+  </si>
+  <si>
+    <t>Т11</t>
+  </si>
+  <si>
+    <t>Т12</t>
+  </si>
+  <si>
+    <t>Т13</t>
+  </si>
+  <si>
+    <t>d - вещественное</t>
+  </si>
+  <si>
+    <t>d - целые</t>
+  </si>
+  <si>
+    <t>d - строка</t>
+  </si>
+  <si>
+    <t>4. Вывод массива</t>
+  </si>
+  <si>
+    <t>Т14</t>
+  </si>
+  <si>
+    <t>заполненный</t>
+  </si>
+  <si>
+    <t>пустой</t>
+  </si>
+  <si>
+    <t>Сообщение массив пустой</t>
+  </si>
+  <si>
+    <t>Т15</t>
+  </si>
+  <si>
+    <t>Т16</t>
+  </si>
+  <si>
+    <t>Т17</t>
+  </si>
+  <si>
+    <t>Т18</t>
+  </si>
+  <si>
+    <t>5. Удалить элемент равный среднему арифметическому</t>
+  </si>
+  <si>
+    <t>Т19</t>
+  </si>
+  <si>
+    <t>Т20</t>
+  </si>
+  <si>
+    <t>Т21</t>
+  </si>
+  <si>
+    <t>Т22</t>
+  </si>
+  <si>
+    <t>Т23</t>
+  </si>
+  <si>
+    <t>Заполненный</t>
+  </si>
+  <si>
+    <t>Сообщение о пустом массиве</t>
+  </si>
+  <si>
+    <t>6. Добавить столбец в конец матрицы</t>
+  </si>
+  <si>
+    <t>Пустая матрица</t>
+  </si>
+  <si>
+    <t>Заполненная матрица</t>
+  </si>
+  <si>
+    <t>Сообщение о пустой матрице</t>
+  </si>
+  <si>
+    <t>7. Удалить все строки в которых встречается заданное число</t>
+  </si>
+  <si>
+    <t>Пустой рванный массив</t>
+  </si>
+  <si>
+    <t>Заполненный рванный массив</t>
+  </si>
+  <si>
+    <t>Сообщение о пустом рванном массиве</t>
   </si>
 </sst>
 </file>
@@ -431,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -442,7 +529,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -456,22 +542,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -844,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72D1A0C-C65A-47B6-BF54-D22E6EE54C96}">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -862,7 +946,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -879,7 +963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -887,7 +971,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -901,7 +985,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -926,7 +1010,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
@@ -940,7 +1024,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
@@ -954,7 +1038,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
@@ -998,13 +1082,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -1013,13 +1097,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -1028,43 +1112,43 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -1073,84 +1157,84 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>7</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>8</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1174,16 +1258,16 @@
       <c r="A25" s="2">
         <v>1</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <v>3</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E25" s="12" t="s">
+      <c r="C25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1191,80 +1275,80 @@
       <c r="A26" s="2">
         <v>2</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="6">
         <v>0</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E26" s="12"/>
+      <c r="C26" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="13"/>
     </row>
     <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f>A26+1</f>
         <v>3</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="6">
         <v>-1</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27" s="12"/>
+      <c r="D27" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="13"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f t="shared" ref="A28:A51" si="0">A27+1</f>
         <v>4</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="6">
         <v>3.14</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E28" s="12"/>
+      <c r="D28" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="13"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E29" s="12"/>
+      <c r="D29" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="13"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="6">
         <v>1</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="6">
         <v>1</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="6">
         <v>1</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="12" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1273,125 +1357,125 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="6">
         <v>-13928</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <v>-13928</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="6">
         <v>-13928</v>
       </c>
-      <c r="E31" s="11"/>
+      <c r="E31" s="12"/>
     </row>
     <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E32" s="11"/>
+      <c r="D32" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="12"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <f>A32+1</f>
         <v>9</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="6">
         <v>3.14</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="6">
         <v>3.14</v>
       </c>
-      <c r="E33" s="11"/>
+      <c r="E33" s="12"/>
     </row>
     <row r="34" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6">
+      <c r="A34" s="5">
         <v>10</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="6">
         <v>0</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="6">
         <v>0</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="6">
         <v>0</v>
       </c>
-      <c r="E34" s="11" t="s">
-        <v>102</v>
+      <c r="E34" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="6">
+      <c r="A35" s="5">
         <v>11</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="6">
         <v>-20</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="6">
         <v>-20</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="6">
         <v>-20</v>
       </c>
-      <c r="E35" s="11"/>
+      <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="6">
+      <c r="A36" s="5">
         <v>12</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="6">
         <v>3.14</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E36" s="11"/>
+      <c r="D36" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="12"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="6">
+      <c r="A37" s="5">
         <v>13</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C37" s="7" t="s">
+      <c r="B37" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E37" s="11"/>
+      <c r="D37" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="12"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>14</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="12" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1399,99 +1483,99 @@
       <c r="A39" s="2">
         <v>15</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="11"/>
+      <c r="E39" s="12"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>16</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E40" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>17</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>28</v>
+      <c r="B41" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E41" s="11"/>
+        <v>89</v>
+      </c>
+      <c r="E41" s="12"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <f>A41+1</f>
         <v>18</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E42" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E42" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E43" s="10"/>
+      <c r="B43" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" s="12"/>
     </row>
     <row r="44" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="11" t="s">
-        <v>63</v>
+      <c r="E44" s="12" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1499,47 +1583,47 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B45" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E45" s="11"/>
+      <c r="B45" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E45" s="12"/>
     </row>
     <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B46" s="13" t="s">
-        <v>106</v>
+      <c r="B46" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E46" s="11"/>
+        <v>76</v>
+      </c>
+      <c r="E46" s="12"/>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="6">
+      <c r="A47" s="5">
         <v>23</v>
       </c>
-      <c r="B47" s="13" t="s">
-        <v>107</v>
+      <c r="B47" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E47" s="11"/>
+        <v>78</v>
+      </c>
+      <c r="E47" s="12"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
@@ -1552,10 +1636,10 @@
         <v>19</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>64</v>
+        <v>79</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -1563,33 +1647,33 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B49" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="E49" s="11"/>
+      <c r="B49" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E49" s="12"/>
     </row>
     <row r="50" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B50" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>65</v>
+      <c r="B50" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -1604,394 +1688,468 @@
         <v>19</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E51" s="11"/>
+        <v>30</v>
+      </c>
+      <c r="E51" s="12"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B53" t="s">
-        <v>34</v>
-      </c>
-      <c r="C53" t="s">
-        <v>35</v>
-      </c>
-      <c r="D53" t="s">
-        <v>36</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="A53" s="10"/>
+      <c r="B53" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+    </row>
+    <row r="56" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" s="10"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F62" s="10"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F65" s="10"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F66" s="10"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="10"/>
+      <c r="B67" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="10"/>
+      <c r="B68" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D68" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F53" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D54" t="s">
-        <v>57</v>
-      </c>
-      <c r="E54" t="s">
-        <v>57</v>
-      </c>
-      <c r="F54" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C55" t="s">
-        <v>57</v>
-      </c>
-      <c r="D55" t="s">
-        <v>57</v>
-      </c>
-      <c r="E55" t="s">
-        <v>57</v>
-      </c>
-      <c r="F55" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C56" t="s">
-        <v>57</v>
-      </c>
-      <c r="D56" t="s">
-        <v>57</v>
-      </c>
-      <c r="E56" t="s">
-        <v>57</v>
-      </c>
-      <c r="F56" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C57" t="s">
-        <v>57</v>
-      </c>
-      <c r="D57" t="s">
-        <v>57</v>
-      </c>
-      <c r="E57" t="s">
-        <v>57</v>
-      </c>
-      <c r="F57" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C58" t="s">
-        <v>57</v>
-      </c>
-      <c r="D58" t="s">
-        <v>57</v>
-      </c>
-      <c r="E58" t="s">
-        <v>57</v>
-      </c>
-      <c r="F58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B59" t="s">
-        <v>57</v>
-      </c>
-      <c r="D59" t="s">
-        <v>57</v>
-      </c>
-      <c r="E59" t="s">
-        <v>57</v>
-      </c>
-      <c r="F59" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B60" t="s">
-        <v>57</v>
-      </c>
-      <c r="D60" t="s">
-        <v>57</v>
-      </c>
-      <c r="E60" t="s">
-        <v>57</v>
-      </c>
-      <c r="F60" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B61" t="s">
-        <v>57</v>
-      </c>
-      <c r="D61" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B62" t="s">
-        <v>57</v>
-      </c>
-      <c r="D62" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B63" t="s">
-        <v>57</v>
-      </c>
-      <c r="D63" t="s">
-        <v>57</v>
-      </c>
-      <c r="E63" t="s">
-        <v>57</v>
-      </c>
-      <c r="F63" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B64" t="s">
-        <v>57</v>
-      </c>
-      <c r="D64" t="s">
-        <v>57</v>
-      </c>
-      <c r="E64" t="s">
-        <v>57</v>
-      </c>
-      <c r="F64" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B65" t="s">
-        <v>57</v>
-      </c>
-      <c r="D65" t="s">
-        <v>57</v>
-      </c>
-      <c r="E65" t="s">
-        <v>57</v>
-      </c>
-      <c r="F65" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B66" t="s">
-        <v>57</v>
-      </c>
-      <c r="D66" t="s">
-        <v>57</v>
-      </c>
-      <c r="E66" t="s">
-        <v>57</v>
-      </c>
-      <c r="F66" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C67" t="s">
-        <v>57</v>
-      </c>
-      <c r="D67" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B68" t="s">
-        <v>57</v>
-      </c>
-      <c r="D68" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C69" t="s">
-        <v>57</v>
-      </c>
-      <c r="E69" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B70" t="s">
-        <v>57</v>
-      </c>
-      <c r="E70" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C71" t="s">
-        <v>57</v>
-      </c>
-      <c r="F71" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B72" t="s">
-        <v>57</v>
-      </c>
-      <c r="F72" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C73" t="s">
-        <v>57</v>
-      </c>
-      <c r="D73" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B74" t="s">
-        <v>57</v>
-      </c>
-      <c r="D74" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B75" t="s">
-        <v>57</v>
-      </c>
-      <c r="D75" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B76" t="s">
-        <v>57</v>
-      </c>
-      <c r="D76" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
+      <c r="E68" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+    </row>
+    <row r="71" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C77" t="s">
-        <v>57</v>
-      </c>
-      <c r="E77" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
-        <v>115</v>
-      </c>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="10"/>
+      <c r="B73" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="10"/>
+      <c r="B74" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F74" t="s">
+        <v>131</v>
+      </c>
+      <c r="G74" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>57</v>
-      </c>
-      <c r="E78" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
-        <v>116</v>
-      </c>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>57</v>
-      </c>
-      <c r="F79" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C80" t="s">
-        <v>57</v>
-      </c>
-      <c r="F80" t="s">
-        <v>57</v>
+        <v>134</v>
+      </c>
+      <c r="C79" t="s">
+        <v>135</v>
+      </c>
+      <c r="D79" t="s">
+        <v>136</v>
+      </c>
+      <c r="E79" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>22</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>138</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A82" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>141</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A86" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A90" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A91" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C91" s="10"/>
+    </row>
+    <row r="92" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A92" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Lab_OOP_5/TESTS.xlsx
+++ b/Lab_OOP_5/TESTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trajt\source\repos\OOP_C#\Lab_OOP_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95B38DE-E788-4184-89FF-E45D7A2F95AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84676715-7485-4007-B3CA-644953353212}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D5E3F440-5A72-4BF4-B64D-9E7427EA4866}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="156">
   <si>
     <t>№</t>
   </si>
@@ -123,9 +123,6 @@
     <t>Вывод рванного массива</t>
   </si>
   <si>
-    <t>Пустой масств</t>
-  </si>
-  <si>
     <t>+</t>
   </si>
   <si>
@@ -475,6 +472,33 @@
   </si>
   <si>
     <t>Сообщение о пустом рванном массиве</t>
+  </si>
+  <si>
+    <t>3 4 5 (удалили строки с 2)</t>
+  </si>
+  <si>
+    <t>Массив пустой!</t>
+  </si>
+  <si>
+    <t>1 : 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 : 1 2 3 4 5                             2 : 1 2 6 7                                3 : 3 8 9                                   4 : 8 10                        </t>
+  </si>
+  <si>
+    <t>Сообщение о пустом массиве (удалили строки с 2)</t>
+  </si>
+  <si>
+    <t>Сообщение о пустом массиве (сначала удалили строки с 2, затем строки с 8)</t>
+  </si>
+  <si>
+    <t>Т28</t>
+  </si>
+  <si>
+    <t>Т29</t>
+  </si>
+  <si>
+    <t>Рванный массив с 1 строчкой</t>
   </si>
 </sst>
 </file>
@@ -518,7 +542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -555,7 +579,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -928,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72D1A0C-C65A-47B6-BF54-D22E6EE54C96}">
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -946,7 +976,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -971,7 +1001,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -985,7 +1015,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -1010,7 +1040,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
@@ -1024,7 +1054,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
@@ -1038,7 +1068,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
@@ -1082,13 +1112,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -1097,13 +1127,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -1112,43 +1142,43 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -1157,42 +1187,42 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1200,13 +1230,13 @@
         <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1214,13 +1244,13 @@
         <v>7</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1228,13 +1258,13 @@
         <v>8</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1262,12 +1292,12 @@
         <v>3</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1279,12 +1309,12 @@
         <v>0</v>
       </c>
       <c r="C26" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="13"/>
+      <c r="E26" s="14"/>
     </row>
     <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
@@ -1298,9 +1328,9 @@
         <v>19</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="13"/>
+        <v>67</v>
+      </c>
+      <c r="E27" s="14"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
@@ -1314,9 +1344,9 @@
         <v>19</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="E28" s="14"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
@@ -1330,9 +1360,9 @@
         <v>19</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="E29" s="14"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
@@ -1348,7 +1378,7 @@
       <c r="D30" s="6">
         <v>1</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="13" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1366,7 +1396,7 @@
       <c r="D31" s="6">
         <v>-13928</v>
       </c>
-      <c r="E31" s="12"/>
+      <c r="E31" s="13"/>
     </row>
     <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
@@ -1380,9 +1410,9 @@
         <v>19</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E32" s="12"/>
+        <v>70</v>
+      </c>
+      <c r="E32" s="13"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
@@ -1398,7 +1428,7 @@
       <c r="D33" s="6">
         <v>3.14</v>
       </c>
-      <c r="E33" s="12"/>
+      <c r="E33" s="13"/>
     </row>
     <row r="34" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
@@ -1413,8 +1443,8 @@
       <c r="D34" s="6">
         <v>0</v>
       </c>
-      <c r="E34" s="12" t="s">
-        <v>72</v>
+      <c r="E34" s="13" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1430,7 +1460,7 @@
       <c r="D35" s="6">
         <v>-20</v>
       </c>
-      <c r="E35" s="12"/>
+      <c r="E35" s="13"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
@@ -1443,24 +1473,24 @@
         <v>19</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" s="12"/>
+        <v>68</v>
+      </c>
+      <c r="E36" s="13"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>13</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E37" s="12"/>
+        <v>68</v>
+      </c>
+      <c r="E37" s="13"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
@@ -1475,7 +1505,7 @@
       <c r="D38" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="13" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1492,7 +1522,7 @@
       <c r="D39" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="12"/>
+      <c r="E39" s="13"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
@@ -1507,7 +1537,7 @@
       <c r="D40" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="13" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1516,15 +1546,15 @@
         <v>17</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E41" s="12"/>
+      <c r="E41" s="13"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
@@ -1540,7 +1570,7 @@
       <c r="D42" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1550,15 +1580,15 @@
         <v>19</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="D43" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E43" s="12"/>
+      <c r="E43" s="13"/>
     </row>
     <row r="44" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
@@ -1574,8 +1604,8 @@
       <c r="D44" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="12" t="s">
-        <v>33</v>
+      <c r="E44" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1584,15 +1614,15 @@
         <v>21</v>
       </c>
       <c r="B45" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="D45" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E45" s="12"/>
+        <v>74</v>
+      </c>
+      <c r="E45" s="13"/>
     </row>
     <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
@@ -1600,30 +1630,30 @@
         <v>22</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E46" s="12"/>
+        <v>75</v>
+      </c>
+      <c r="E46" s="13"/>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>23</v>
       </c>
       <c r="B47" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="D47" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E47" s="12"/>
+        <v>77</v>
+      </c>
+      <c r="E47" s="13"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
@@ -1636,10 +1666,10 @@
         <v>19</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>34</v>
+        <v>78</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -1648,15 +1678,15 @@
         <v>25</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E49" s="12"/>
+        <v>79</v>
+      </c>
+      <c r="E49" s="13"/>
     </row>
     <row r="50" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
@@ -1664,16 +1694,16 @@
         <v>26</v>
       </c>
       <c r="B50" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>35</v>
+      <c r="E50" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -1688,484 +1718,544 @@
         <v>19</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E51" s="12"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="2"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>99</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E51" s="13"/>
+    </row>
+    <row r="52" spans="1:6" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>28</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E52" s="13"/>
+    </row>
+    <row r="53" spans="1:6" s="10" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>29</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E53" s="13"/>
+    </row>
+    <row r="54" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="12"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-    </row>
-    <row r="56" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B56" s="10"/>
+      <c r="A55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
-      <c r="E56" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="E56" s="10"/>
       <c r="F56" s="10"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>97</v>
+      </c>
       <c r="F57" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B58" s="10"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="C58" s="10"/>
-      <c r="D58" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="D58" s="10"/>
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="10" t="s">
-        <v>104</v>
+    <row r="59" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="11" t="s">
+        <v>100</v>
       </c>
       <c r="B59" s="10"/>
-      <c r="C59" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="C59" s="10"/>
       <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
+      <c r="E59" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="F59" s="10"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="11" t="s">
-        <v>105</v>
+      <c r="A60" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
-      <c r="D60" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
       <c r="F60" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10" t="s">
-        <v>106</v>
-      </c>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61" s="10"/>
       <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
+      <c r="D61" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10" t="s">
-        <v>107</v>
-      </c>
+      <c r="A62" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62" s="10"/>
       <c r="C62" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>110</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
       <c r="F62" s="10"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="A63" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B63" s="10"/>
       <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
+      <c r="D63" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="A64" s="10"/>
+      <c r="B64" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C64" s="10"/>
       <c r="D64" s="10"/>
       <c r="E64" s="10"/>
       <c r="F64" s="10"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
+      <c r="A65" s="10"/>
+      <c r="B65" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>107</v>
+      </c>
       <c r="D65" s="10" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="F65" s="10"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C66" s="10"/>
-      <c r="D66" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
       <c r="F66" s="10"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="10"/>
-      <c r="B67" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C67" s="10"/>
+      <c r="A67" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="D67" s="10"/>
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="10"/>
-      <c r="B68" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>117</v>
-      </c>
+      <c r="A68" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
       <c r="D68" s="10" t="s">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>119</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F68" s="10"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F69" s="10"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B70" s="10"/>
+      <c r="A70" s="10"/>
+      <c r="B70" s="10" t="s">
+        <v>114</v>
+      </c>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
-    </row>
-    <row r="71" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="10" t="s">
-        <v>122</v>
+      <c r="F70" s="10"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="10"/>
+      <c r="B71" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>31</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="10"/>
-      <c r="B73" s="10" t="s">
-        <v>123</v>
-      </c>
+      <c r="A73" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B73" s="10"/>
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
       <c r="E73" s="10"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="10"/>
-      <c r="B74" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>128</v>
+    <row r="74" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="F74" t="s">
-        <v>131</v>
-      </c>
-      <c r="G74" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>31</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="B75" s="10"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="10"/>
+      <c r="B76" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="10"/>
+      <c r="B77" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F77" t="s">
+        <v>130</v>
+      </c>
+      <c r="G77" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G76" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
-        <v>132</v>
+      <c r="B78" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
+      <c r="A79" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A80" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>133</v>
+      </c>
+      <c r="C82" t="s">
         <v>134</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D82" t="s">
         <v>135</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E82" t="s">
         <v>136</v>
       </c>
-      <c r="E79" t="s">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>22</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>22</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+      <c r="C84" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A85" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C81" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="11" t="s">
+      <c r="B85" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
         <v>139</v>
       </c>
-      <c r="B82" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B83" t="s">
+    </row>
+    <row r="87" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+      <c r="B88" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A89" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="B85" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B88" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="10" t="s">
-        <v>86</v>
-      </c>
       <c r="C89" s="10" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A93" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A94" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A95" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="C90" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A91" s="11" t="s">
+      <c r="B95" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C95" s="10"/>
+      <c r="E95" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A96" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="B91" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C91" s="10"/>
-    </row>
-    <row r="92" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A92" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>31</v>
+      <c r="C96" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="E42:E43"/>
     <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
     <mergeCell ref="E25:E29"/>
     <mergeCell ref="E30:E33"/>
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="E40:E41"/>
     <mergeCell ref="E34:E37"/>
     <mergeCell ref="E44:E47"/>
+    <mergeCell ref="E50:E53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A25:E34 A38:E44 A35:D37 A48:E51 A45:D47">
+  <conditionalFormatting sqref="A25:E34 A38:E44 A35:D37 A48:E50 A45:D47 A54:E54 A51:D53">
     <cfRule type="expression" priority="2">
       <formula>$E$24</formula>
     </cfRule>
